--- a/biology/Zoologie/Conus_hieroglyphus/Conus_hieroglyphus.xlsx
+++ b/biology/Zoologie/Conus_hieroglyphus/Conus_hieroglyphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus hieroglyphus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large d'Aruba, dans les Antilles néerlandaises.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est limitée à une seule île avec un littoral d'environ 69 km. En tant qu'espèce d'eau peu profonde, sa présence dans une zone dotée d'une importante infrastructure touristique la place dans une situation de risque particulier. Cette espèce est inscrite dans la catégorie Vulnérable sous D2[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est limitée à une seule île avec un littoral d'environ 69 km. En tant qu'espèce d'eau peu profonde, sa présence dans une zone dotée d'une importante infrastructure touristique la place dans une situation de risque particulier. Cette espèce est inscrite dans la catégorie Vulnérable sous D2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_hieroglyphus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hieroglyphus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus hieroglyphus a été décrite pour la première fois en 1833 par le malacologiste français Pierre-Louis Duclos (1783-1853)[2] dans la publication intitulée « C Hieroglyphus »[3],[4].
-Synonymes
-Arubaconus hieroglyphus (Duclos, 1833) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus hieroglyphus a été décrite pour la première fois en 1833 par le malacologiste français Pierre-Louis Duclos (1783-1853) dans la publication intitulée « C Hieroglyphus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_hieroglyphus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hieroglyphus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arubaconus hieroglyphus (Duclos, 1833) · non accepté
 Conus (Ductoconus) hieroglyphus Duclos, 1833 · appellation alternative
 Conus armillatus C. B. Adams, 1850 · non accepté
 Gladioconus hieroglyphus (Duclos, 1833) · non accepté</t>
